--- a/analysis/metadata/P13_3/P13_3_minimal_metadata.xlsx
+++ b/analysis/metadata/P13_3/P13_3_minimal_metadata.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1411</t>
+          <t>4100</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -493,15 +493,10 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Biogas</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
         <is>
           <t>Biogas sludge</t>
         </is>
@@ -531,7 +526,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1411</t>
+          <t>4100</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -561,15 +556,10 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Biogas</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
         <is>
           <t>Biogas sludge</t>
         </is>
@@ -599,7 +589,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1411</t>
+          <t>4100</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -629,15 +619,10 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Biogas</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
         <is>
           <t>Biogas sludge</t>
         </is>
@@ -667,7 +652,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1411</t>
+          <t>4100</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -697,15 +682,10 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Biogas</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
         <is>
           <t>Biogas sludge</t>
         </is>
@@ -735,7 +715,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1411</t>
+          <t>4100</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -765,15 +745,10 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Biogas</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
         <is>
           <t>Biogas sludge</t>
         </is>
@@ -803,7 +778,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1411</t>
+          <t>4100</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -833,15 +808,10 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Biogas</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
         <is>
           <t>Biogas sludge</t>
         </is>
@@ -871,7 +841,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1412</t>
+          <t>4200</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -901,15 +871,10 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Biogas</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
         <is>
           <t>Biogas manure</t>
         </is>
@@ -939,7 +904,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1412</t>
+          <t>4200</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -969,15 +934,10 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Biogas</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
         <is>
           <t>Biogas manure</t>
         </is>
@@ -1007,7 +967,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1412</t>
+          <t>4200</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1037,15 +997,10 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Biogas</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
         <is>
           <t>Biogas manure</t>
         </is>
@@ -1075,7 +1030,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1412</t>
+          <t>4200</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1105,15 +1060,10 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Biogas</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
         <is>
           <t>Biogas manure</t>
         </is>
@@ -1143,7 +1093,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1412</t>
+          <t>4200</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1173,15 +1123,10 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Biogas</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
         <is>
           <t>Biogas manure</t>
         </is>
@@ -1211,7 +1156,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1411</t>
+          <t>4100</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1241,15 +1186,10 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Biogas</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
         <is>
           <t>Biogas sludge</t>
         </is>
@@ -1279,7 +1219,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1419</t>
+          <t>4300</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1309,15 +1249,10 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Biogas</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
         <is>
           <t>Biogas Unknown</t>
         </is>
@@ -1347,7 +1282,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1419</t>
+          <t>4300</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1377,15 +1312,10 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Biogas</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
         <is>
           <t>Biogas Unknown</t>
         </is>
@@ -1415,7 +1345,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1419</t>
+          <t>4300</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1445,15 +1375,10 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Biogas</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
         <is>
           <t>Biogas Unknown</t>
         </is>
@@ -1483,7 +1408,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1419</t>
+          <t>4300</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1513,15 +1438,10 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Biogas</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
         <is>
           <t>Biogas Unknown</t>
         </is>
@@ -1551,7 +1471,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1419</t>
+          <t>4300</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1581,15 +1501,10 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Biogas</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
         <is>
           <t>Biogas Unknown</t>
         </is>
@@ -1619,7 +1534,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1419</t>
+          <t>4300</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1649,15 +1564,10 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Biogas</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
         <is>
           <t>Biogas Unknown</t>
         </is>
@@ -1687,7 +1597,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1419</t>
+          <t>4300</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1717,15 +1627,10 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Biogas</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
         <is>
           <t>Biogas Unknown</t>
         </is>
@@ -1755,7 +1660,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1419</t>
+          <t>4300</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1785,15 +1690,10 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Biogas</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
         <is>
           <t>Biogas Unknown</t>
         </is>
@@ -1823,7 +1723,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1411</t>
+          <t>4100</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1853,15 +1753,10 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Biogas</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
         <is>
           <t>Biogas sludge</t>
         </is>
@@ -1891,7 +1786,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1411</t>
+          <t>4100</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1921,15 +1816,10 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Biogas</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
         <is>
           <t>Biogas sludge</t>
         </is>
@@ -1959,7 +1849,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>1411</t>
+          <t>4100</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1989,15 +1879,10 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Biogas</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
         <is>
           <t>Biogas sludge</t>
         </is>
@@ -2027,7 +1912,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>1412</t>
+          <t>4200</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -2057,15 +1942,10 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Biogas</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
         <is>
           <t>Biogas manure</t>
         </is>
@@ -2095,7 +1975,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>1412</t>
+          <t>4200</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2125,15 +2005,10 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Biogas</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
         <is>
           <t>Biogas manure</t>
         </is>
@@ -2163,7 +2038,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>1412</t>
+          <t>4200</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2193,15 +2068,10 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Biogas</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
         <is>
           <t>Biogas manure</t>
         </is>
@@ -2231,7 +2101,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1412</t>
+          <t>4200</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2261,15 +2131,10 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Biogas</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
         <is>
           <t>Biogas manure</t>
         </is>
@@ -2299,7 +2164,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>1412</t>
+          <t>4200</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2329,15 +2194,10 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Biogas</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr">
         <is>
           <t>Biogas manure</t>
         </is>
@@ -2367,7 +2227,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>1412</t>
+          <t>4200</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2397,15 +2257,10 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Biogas</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr">
         <is>
           <t>Biogas manure</t>
         </is>
@@ -2435,7 +2290,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>1412</t>
+          <t>4200</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2465,15 +2320,10 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Biogas</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="P31" t="inlineStr">
         <is>
           <t>Biogas manure</t>
         </is>
@@ -2503,7 +2353,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>1419</t>
+          <t>4300</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2533,15 +2383,10 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Biogas</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
         <is>
           <t>Biogas Unknown</t>
         </is>
@@ -2571,7 +2416,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>1419</t>
+          <t>4300</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2601,15 +2446,10 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Biogas</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
         <is>
           <t>Biogas Unknown</t>
         </is>
@@ -2639,7 +2479,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>1419</t>
+          <t>4300</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2669,15 +2509,10 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Biogas</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
         <is>
           <t>Biogas Unknown</t>
         </is>
@@ -2707,7 +2542,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>1419</t>
+          <t>4300</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2737,15 +2572,10 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Biogas</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
         <is>
           <t>Biogas Unknown</t>
         </is>
@@ -2775,7 +2605,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>1419</t>
+          <t>4300</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2805,15 +2635,10 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Biogas</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="P36" t="inlineStr">
         <is>
           <t>Biogas Unknown</t>
         </is>
@@ -2843,7 +2668,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>1419</t>
+          <t>4300</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2873,15 +2698,10 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Biogas</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="P37" t="inlineStr">
         <is>
           <t>Biogas Unknown</t>
         </is>
@@ -2911,7 +2731,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>1419</t>
+          <t>4300</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2941,15 +2761,10 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Biogas</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
         <is>
           <t>Biogas Unknown</t>
         </is>
@@ -2979,7 +2794,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>1419</t>
+          <t>4300</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -3009,15 +2824,10 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Biogas</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
-        <is>
-          <t>Biogas</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
         <is>
           <t>Biogas Unknown</t>
         </is>

--- a/analysis/metadata/P13_3/P13_3_minimal_metadata.xlsx
+++ b/analysis/metadata/P13_3/P13_3_minimal_metadata.xlsx
@@ -491,6 +491,11 @@
           <t>Urban</t>
         </is>
       </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2022-11-04</t>
+        </is>
+      </c>
       <c r="N2" t="inlineStr">
         <is>
           <t>Biogas</t>
@@ -554,6 +559,11 @@
           <t>Urban</t>
         </is>
       </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2022-11-05</t>
+        </is>
+      </c>
       <c r="N3" t="inlineStr">
         <is>
           <t>Biogas</t>
@@ -617,6 +627,11 @@
           <t>Urban</t>
         </is>
       </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>2022-11-06</t>
+        </is>
+      </c>
       <c r="N4" t="inlineStr">
         <is>
           <t>Biogas</t>
@@ -680,6 +695,11 @@
           <t>Urban</t>
         </is>
       </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>2022-11-07</t>
+        </is>
+      </c>
       <c r="N5" t="inlineStr">
         <is>
           <t>Biogas</t>
@@ -743,6 +763,11 @@
           <t>Urban</t>
         </is>
       </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>2022-11-08</t>
+        </is>
+      </c>
       <c r="N6" t="inlineStr">
         <is>
           <t>Biogas</t>
@@ -806,6 +831,11 @@
           <t>Urban</t>
         </is>
       </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>2022-11-09</t>
+        </is>
+      </c>
       <c r="N7" t="inlineStr">
         <is>
           <t>Biogas</t>
@@ -869,6 +899,11 @@
           <t>Urban</t>
         </is>
       </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>2022-11-10</t>
+        </is>
+      </c>
       <c r="N8" t="inlineStr">
         <is>
           <t>Biogas</t>
@@ -932,6 +967,11 @@
           <t>Urban</t>
         </is>
       </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
       <c r="N9" t="inlineStr">
         <is>
           <t>Biogas</t>
@@ -995,6 +1035,11 @@
           <t>Urban</t>
         </is>
       </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>2022-11-12</t>
+        </is>
+      </c>
       <c r="N10" t="inlineStr">
         <is>
           <t>Biogas</t>
@@ -1058,6 +1103,11 @@
           <t>Urban</t>
         </is>
       </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>2022-11-13</t>
+        </is>
+      </c>
       <c r="N11" t="inlineStr">
         <is>
           <t>Biogas</t>
@@ -1121,6 +1171,11 @@
           <t>Urban</t>
         </is>
       </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>2022-11-14</t>
+        </is>
+      </c>
       <c r="N12" t="inlineStr">
         <is>
           <t>Biogas</t>
@@ -1184,6 +1239,11 @@
           <t>Urban</t>
         </is>
       </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>2022-11-15</t>
+        </is>
+      </c>
       <c r="N13" t="inlineStr">
         <is>
           <t>Biogas</t>
@@ -1247,6 +1307,11 @@
           <t>Urban</t>
         </is>
       </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>2022-11-16</t>
+        </is>
+      </c>
       <c r="N14" t="inlineStr">
         <is>
           <t>Biogas</t>
@@ -1310,6 +1375,11 @@
           <t>Urban</t>
         </is>
       </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>2022-11-17</t>
+        </is>
+      </c>
       <c r="N15" t="inlineStr">
         <is>
           <t>Biogas</t>
@@ -1373,6 +1443,11 @@
           <t>Urban</t>
         </is>
       </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>2022-11-18</t>
+        </is>
+      </c>
       <c r="N16" t="inlineStr">
         <is>
           <t>Biogas</t>
@@ -1436,6 +1511,11 @@
           <t>Urban</t>
         </is>
       </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>2022-11-19</t>
+        </is>
+      </c>
       <c r="N17" t="inlineStr">
         <is>
           <t>Biogas</t>
@@ -1499,6 +1579,11 @@
           <t>Urban</t>
         </is>
       </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>2022-11-20</t>
+        </is>
+      </c>
       <c r="N18" t="inlineStr">
         <is>
           <t>Biogas</t>
@@ -1562,6 +1647,11 @@
           <t>Urban</t>
         </is>
       </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>2022-11-21</t>
+        </is>
+      </c>
       <c r="N19" t="inlineStr">
         <is>
           <t>Biogas</t>
@@ -1625,6 +1715,11 @@
           <t>Urban</t>
         </is>
       </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>2022-11-22</t>
+        </is>
+      </c>
       <c r="N20" t="inlineStr">
         <is>
           <t>Biogas</t>
@@ -1688,6 +1783,11 @@
           <t>Urban</t>
         </is>
       </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>2022-11-23</t>
+        </is>
+      </c>
       <c r="N21" t="inlineStr">
         <is>
           <t>Biogas</t>
@@ -1751,6 +1851,11 @@
           <t>Urban</t>
         </is>
       </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>2022-11-24</t>
+        </is>
+      </c>
       <c r="N22" t="inlineStr">
         <is>
           <t>Biogas</t>
@@ -1814,6 +1919,11 @@
           <t>Urban</t>
         </is>
       </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>2022-11-25</t>
+        </is>
+      </c>
       <c r="N23" t="inlineStr">
         <is>
           <t>Biogas</t>
@@ -1877,6 +1987,11 @@
           <t>Urban</t>
         </is>
       </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>2022-11-26</t>
+        </is>
+      </c>
       <c r="N24" t="inlineStr">
         <is>
           <t>Biogas</t>
@@ -1940,6 +2055,11 @@
           <t>Urban</t>
         </is>
       </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>2022-11-27</t>
+        </is>
+      </c>
       <c r="N25" t="inlineStr">
         <is>
           <t>Biogas</t>
@@ -2003,6 +2123,11 @@
           <t>Urban</t>
         </is>
       </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>2022-11-28</t>
+        </is>
+      </c>
       <c r="N26" t="inlineStr">
         <is>
           <t>Biogas</t>
@@ -2066,6 +2191,11 @@
           <t>Urban</t>
         </is>
       </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>2022-11-29</t>
+        </is>
+      </c>
       <c r="N27" t="inlineStr">
         <is>
           <t>Biogas</t>
@@ -2129,6 +2259,11 @@
           <t>Urban</t>
         </is>
       </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>2022-11-30</t>
+        </is>
+      </c>
       <c r="N28" t="inlineStr">
         <is>
           <t>Biogas</t>
@@ -2192,6 +2327,11 @@
           <t>Urban</t>
         </is>
       </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>2022-12-01</t>
+        </is>
+      </c>
       <c r="N29" t="inlineStr">
         <is>
           <t>Biogas</t>
@@ -2255,6 +2395,11 @@
           <t>Urban</t>
         </is>
       </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>2022-12-02</t>
+        </is>
+      </c>
       <c r="N30" t="inlineStr">
         <is>
           <t>Biogas</t>
@@ -2318,6 +2463,11 @@
           <t>Urban</t>
         </is>
       </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>2022-12-03</t>
+        </is>
+      </c>
       <c r="N31" t="inlineStr">
         <is>
           <t>Biogas</t>
@@ -2381,6 +2531,11 @@
           <t>Urban</t>
         </is>
       </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>2022-12-04</t>
+        </is>
+      </c>
       <c r="N32" t="inlineStr">
         <is>
           <t>Biogas</t>
@@ -2444,6 +2599,11 @@
           <t>Urban</t>
         </is>
       </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>2022-12-05</t>
+        </is>
+      </c>
       <c r="N33" t="inlineStr">
         <is>
           <t>Biogas</t>
@@ -2507,6 +2667,11 @@
           <t>Urban</t>
         </is>
       </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>2022-12-06</t>
+        </is>
+      </c>
       <c r="N34" t="inlineStr">
         <is>
           <t>Biogas</t>
@@ -2570,6 +2735,11 @@
           <t>Urban</t>
         </is>
       </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>2022-12-07</t>
+        </is>
+      </c>
       <c r="N35" t="inlineStr">
         <is>
           <t>Biogas</t>
@@ -2633,6 +2803,11 @@
           <t>Urban</t>
         </is>
       </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>2022-12-08</t>
+        </is>
+      </c>
       <c r="N36" t="inlineStr">
         <is>
           <t>Biogas</t>
@@ -2696,6 +2871,11 @@
           <t>Urban</t>
         </is>
       </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>2022-12-09</t>
+        </is>
+      </c>
       <c r="N37" t="inlineStr">
         <is>
           <t>Biogas</t>
@@ -2759,6 +2939,11 @@
           <t>Urban</t>
         </is>
       </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>2022-12-10</t>
+        </is>
+      </c>
       <c r="N38" t="inlineStr">
         <is>
           <t>Biogas</t>
@@ -2820,6 +3005,11 @@
       <c r="L39" t="inlineStr">
         <is>
           <t>Urban</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>2022-12-11</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
